--- a/Files/Total/xlsx Files/order_history.xlsx
+++ b/Files/Total/xlsx Files/order_history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -34,10 +34,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>2023-07-15</t>
-  </si>
-  <si>
-    <t>2023-07-19</t>
+    <t>2023-07-18</t>
   </si>
   <si>
     <t>Buy</t>
@@ -46,10 +43,13 @@
     <t>Sell</t>
   </si>
   <si>
-    <t>OKIDOKI</t>
-  </si>
-  <si>
-    <t>EREGL</t>
+    <t>ODAS.IS</t>
+  </si>
+  <si>
+    <t>EREGL.IS</t>
+  </si>
+  <si>
+    <t>SISE.IS</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,19 +438,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>23000</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -458,19 +458,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>-500</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>-5000</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -481,56 +481,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>-3</v>
       </c>
       <c r="F4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>1000</v>
-      </c>
-      <c r="F6">
-        <v>23000</v>
+        <v>-102</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Total/xlsx Files/order_history.xlsx
+++ b/Files/Total/xlsx Files/order_history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -34,16 +34,37 @@
     <t>Total</t>
   </si>
   <si>
-    <t>2023-07-28</t>
+    <t>Commission</t>
+  </si>
+  <si>
+    <t>26-10-2022</t>
+  </si>
+  <si>
+    <t>27-10-2022</t>
+  </si>
+  <si>
+    <t>07-11-2022</t>
+  </si>
+  <si>
+    <t>08-11-2022</t>
+  </si>
+  <si>
+    <t>10-11-2022</t>
   </si>
   <si>
     <t>Buy</t>
   </si>
   <si>
-    <t>ODAS.IS</t>
-  </si>
-  <si>
     <t>EREGL.IS</t>
+  </si>
+  <si>
+    <t>SISE.IS</t>
+  </si>
+  <si>
+    <t>THYAO.IS</t>
+  </si>
+  <si>
+    <t>TUKAS.IS</t>
   </si>
 </sst>
 </file>
@@ -401,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,65 +447,169 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>30.28</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>302.8</v>
+      </c>
+      <c r="G2">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>33.92</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>339.2</v>
+      </c>
+      <c r="G3">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>30.86</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>462.9</v>
+      </c>
+      <c r="G4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>34.2</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>684</v>
+      </c>
+      <c r="G5">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>40</v>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>360</v>
+      </c>
+      <c r="G6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>107.7</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>323.1</v>
+      </c>
+      <c r="G7">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>20.32</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>508</v>
+      </c>
+      <c r="G8">
+        <v>1.06</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Total/xlsx Files/order_history.xlsx
+++ b/Files/Total/xlsx Files/order_history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -37,6 +37,90 @@
     <t>Commission</t>
   </si>
   <si>
+    <t>11-10-2022</t>
+  </si>
+  <si>
+    <t>13-10-2022</t>
+  </si>
+  <si>
+    <t>18-11-2022</t>
+  </si>
+  <si>
+    <t>24-11-2022</t>
+  </si>
+  <si>
+    <t>30-11-2022</t>
+  </si>
+  <si>
+    <t>02-12-2022</t>
+  </si>
+  <si>
+    <t>06-12-2022</t>
+  </si>
+  <si>
+    <t>07-12-2022</t>
+  </si>
+  <si>
+    <t>19-12-2022</t>
+  </si>
+  <si>
+    <t>20-12-2022</t>
+  </si>
+  <si>
+    <t>21-12-2022</t>
+  </si>
+  <si>
+    <t>26-12-2022</t>
+  </si>
+  <si>
+    <t>14-10-2022</t>
+  </si>
+  <si>
+    <t>28-12-2022</t>
+  </si>
+  <si>
+    <t>30-12-2022</t>
+  </si>
+  <si>
+    <t>27-01-2023</t>
+  </si>
+  <si>
+    <t>01-02-2023</t>
+  </si>
+  <si>
+    <t>02-02-2023</t>
+  </si>
+  <si>
+    <t>16-02-2023</t>
+  </si>
+  <si>
+    <t>17-02-2023</t>
+  </si>
+  <si>
+    <t>03-07-2023</t>
+  </si>
+  <si>
+    <t>06-07-2023</t>
+  </si>
+  <si>
+    <t>12-07-2023</t>
+  </si>
+  <si>
+    <t>19-10-2022</t>
+  </si>
+  <si>
+    <t>17-07-2023</t>
+  </si>
+  <si>
+    <t>19-07-2023</t>
+  </si>
+  <si>
+    <t>20-07-2023</t>
+  </si>
+  <si>
+    <t>25-10-2022</t>
+  </si>
+  <si>
     <t>26-10-2022</t>
   </si>
   <si>
@@ -52,19 +136,100 @@
     <t>10-11-2022</t>
   </si>
   <si>
+    <t>2022-11-09</t>
+  </si>
+  <si>
+    <t>2022-12-09</t>
+  </si>
+  <si>
+    <t>2023-01-04</t>
+  </si>
+  <si>
+    <t>2023-04-06</t>
+  </si>
+  <si>
+    <t>2023-04-12</t>
+  </si>
+  <si>
+    <t>2023-04-27</t>
+  </si>
+  <si>
+    <t>2023-07-20</t>
+  </si>
+  <si>
+    <t>2023-07-28</t>
+  </si>
+  <si>
+    <t>2023-08-10</t>
+  </si>
+  <si>
     <t>Buy</t>
   </si>
   <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>SISE.IS</t>
+  </si>
+  <si>
+    <t>PETKM.IS</t>
+  </si>
+  <si>
+    <t>ODAS.IS</t>
+  </si>
+  <si>
+    <t>PGSUS.IS</t>
+  </si>
+  <si>
+    <t>AKBNK.IS</t>
+  </si>
+  <si>
+    <t>ALFAS.IS</t>
+  </si>
+  <si>
     <t>EREGL.IS</t>
   </si>
   <si>
-    <t>SISE.IS</t>
+    <t>TUPRS.IS</t>
+  </si>
+  <si>
+    <t>KRDMD.IS</t>
+  </si>
+  <si>
+    <t>YKBNK.IS</t>
+  </si>
+  <si>
+    <t>FROTO.IS</t>
+  </si>
+  <si>
+    <t>CANTE.IS</t>
+  </si>
+  <si>
+    <t>KCHOL.IS</t>
   </si>
   <si>
     <t>THYAO.IS</t>
   </si>
   <si>
     <t>TUKAS.IS</t>
+  </si>
+  <si>
+    <t>BRKVY.IS</t>
+  </si>
+  <si>
+    <t>KOPOL.IS</t>
+  </si>
+  <si>
+    <t>EUPWR.IS</t>
+  </si>
+  <si>
+    <t>CWENE.IS</t>
+  </si>
+  <si>
+    <t>KLSER.IS</t>
+  </si>
+  <si>
+    <t>ASGYO.IS</t>
   </si>
 </sst>
 </file>
@@ -422,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,19 +621,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>30.28</v>
+        <v>29.98</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>302.8</v>
+        <v>299.8</v>
       </c>
       <c r="G2">
         <v>0.63</v>
@@ -479,45 +644,45 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>33.92</v>
+        <v>14.7</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>339.2</v>
+        <v>294</v>
       </c>
       <c r="G3">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>30.86</v>
+        <v>11.59</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>462.9</v>
+        <v>231.8</v>
       </c>
       <c r="G4">
-        <v>0.97</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -525,22 +690,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>34.2</v>
+        <v>338.9</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>684</v>
+        <v>338.9</v>
       </c>
       <c r="G5">
-        <v>1.43</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -548,68 +713,1080 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>17.59</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>360</v>
+        <v>527.7</v>
       </c>
       <c r="G6">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>107.7</v>
+        <v>18.13</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>323.1</v>
+        <v>362.6</v>
       </c>
       <c r="G7">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8">
+        <v>17.12</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>256.8</v>
+      </c>
+      <c r="G8">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>409.3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>409.3</v>
+      </c>
+      <c r="G9">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10">
+        <v>199.3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>199.3</v>
+      </c>
+      <c r="G10">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>199.4</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>-199.4</v>
+      </c>
+      <c r="G11">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>180.9</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>-180.9</v>
+      </c>
+      <c r="G12">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>41.54</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>207.7</v>
+      </c>
+      <c r="G13">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>464.4</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>464.4</v>
+      </c>
+      <c r="G14">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <v>41.64</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>416.4</v>
+      </c>
+      <c r="G15">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16">
+        <v>480.3</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>480.3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17">
+        <v>41.5</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>415</v>
+      </c>
+      <c r="G17">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <v>29.38</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>440.7</v>
+      </c>
+      <c r="G18">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>10.5</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>210</v>
+      </c>
+      <c r="G19">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20">
+        <v>18.4</v>
+      </c>
+      <c r="E20">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>644</v>
+      </c>
+      <c r="G20">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>17.28</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>345.6</v>
+      </c>
+      <c r="G21">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <v>17.08</v>
+      </c>
+      <c r="E22">
+        <v>55</v>
+      </c>
+      <c r="F22">
+        <v>939.4</v>
+      </c>
+      <c r="G22">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>6.53</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>130.6</v>
+      </c>
+      <c r="G23">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>14.51</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>145.1</v>
+      </c>
+      <c r="G24">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25">
+        <v>16.2</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>324</v>
+      </c>
+      <c r="G25">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>362</v>
+      </c>
+      <c r="G26">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27">
+        <v>779.3</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1558.6</v>
+      </c>
+      <c r="G27">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28">
+        <v>31.12</v>
+      </c>
+      <c r="E28">
+        <v>35</v>
+      </c>
+      <c r="F28">
+        <v>1089.2</v>
+      </c>
+      <c r="G28">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29">
+        <v>26.56</v>
+      </c>
+      <c r="E29">
+        <v>-35</v>
+      </c>
+      <c r="F29">
+        <v>-929.6</v>
+      </c>
+      <c r="G29">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30">
+        <v>7.84</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <v>392</v>
+      </c>
+      <c r="G30">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>112.4</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>337.2</v>
+      </c>
+      <c r="G31">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32">
+        <v>8.77</v>
+      </c>
+      <c r="E32">
+        <v>-75</v>
+      </c>
+      <c r="F32">
+        <v>-657.75</v>
+      </c>
+      <c r="G32">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33">
+        <v>88.5</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>442.5</v>
+      </c>
+      <c r="G33">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>180.8</v>
+      </c>
+      <c r="G34">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35">
+        <v>12.48</v>
+      </c>
+      <c r="E35">
+        <v>25</v>
+      </c>
+      <c r="F35">
+        <v>312</v>
+      </c>
+      <c r="G35">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36">
+        <v>100.9</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>302.7</v>
+      </c>
+      <c r="G36">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37">
+        <v>30.28</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>302.8</v>
+      </c>
+      <c r="G37">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38">
+        <v>33.92</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>339.2</v>
+      </c>
+      <c r="G38">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39">
+        <v>30.86</v>
+      </c>
+      <c r="E39">
+        <v>15</v>
+      </c>
+      <c r="F39">
+        <v>462.9</v>
+      </c>
+      <c r="G39">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40">
+        <v>34.2</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
+      </c>
+      <c r="F40">
+        <v>684</v>
+      </c>
+      <c r="G40">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41">
+        <v>36</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>360</v>
+      </c>
+      <c r="G41">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42">
+        <v>107.7</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>323.1</v>
+      </c>
+      <c r="G42">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43">
+        <v>20.32</v>
+      </c>
+      <c r="E43">
+        <v>25</v>
+      </c>
+      <c r="F43">
+        <v>508</v>
+      </c>
+      <c r="G43">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44">
+        <v>58.5</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>58.5</v>
+      </c>
+      <c r="G44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45">
+        <v>14.2</v>
+      </c>
+      <c r="E45">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>20.32</v>
-      </c>
-      <c r="E8">
+      <c r="F45">
+        <v>156.2</v>
+      </c>
+      <c r="G45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46">
+        <v>30.18</v>
+      </c>
+      <c r="E46">
+        <v>-11</v>
+      </c>
+      <c r="F46">
+        <v>-331.98</v>
+      </c>
+      <c r="G46">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47">
+        <v>24.5</v>
+      </c>
+      <c r="E47">
+        <v>19</v>
+      </c>
+      <c r="F47">
+        <v>465.5</v>
+      </c>
+      <c r="G47">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48">
+        <v>40.6</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>812</v>
+      </c>
+      <c r="G48">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49">
+        <v>108.6</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>760.2</v>
+      </c>
+      <c r="G49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50">
         <v>25</v>
       </c>
-      <c r="F8">
-        <v>508</v>
-      </c>
-      <c r="G8">
-        <v>1.06</v>
+      <c r="E50">
+        <v>50</v>
+      </c>
+      <c r="F50">
+        <v>1250</v>
+      </c>
+      <c r="G50">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51">
+        <v>12.6</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+      <c r="F51">
+        <v>630</v>
+      </c>
+      <c r="G51">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52">
+        <v>19.2</v>
+      </c>
+      <c r="E52">
+        <v>-50</v>
+      </c>
+      <c r="F52">
+        <v>-960</v>
+      </c>
+      <c r="G52">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
